--- a/lab2/com_sortGRAPHs.xlsx
+++ b/lab2/com_sortGRAPHs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\progaCPP\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59968796-249F-4F68-BE4E-D31B966E29CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C89781-5EA3-4DA8-B5BB-0B39659A9A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,133 +390,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>1558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>1812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>2091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>2387</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>3034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>3786</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58</c:v>
+                  <c:v>4190</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69</c:v>
+                  <c:v>5049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76</c:v>
+                  <c:v>5531</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83</c:v>
+                  <c:v>6015</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90</c:v>
+                  <c:v>6541</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97</c:v>
+                  <c:v>7024</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105</c:v>
+                  <c:v>7582</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>113</c:v>
+                  <c:v>8131</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>121</c:v>
+                  <c:v>8783</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>129</c:v>
+                  <c:v>9355</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>138</c:v>
+                  <c:v>9994</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>148</c:v>
+                  <c:v>10606</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>157</c:v>
+                  <c:v>11299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>166</c:v>
+                  <c:v>12024</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>177</c:v>
+                  <c:v>12691</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>187</c:v>
+                  <c:v>13418</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>197</c:v>
+                  <c:v>14173</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>208</c:v>
+                  <c:v>14968</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>220</c:v>
+                  <c:v>15843</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>231</c:v>
+                  <c:v>16571</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>242</c:v>
+                  <c:v>17443</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>255</c:v>
+                  <c:v>18255</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>267</c:v>
+                  <c:v>19130</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>279</c:v>
+                  <c:v>20052</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>293</c:v>
+                  <c:v>20946</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>320</c:v>
+                  <c:v>21897</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>320</c:v>
+                  <c:v>22892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>333</c:v>
+                  <c:v>24275</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>346</c:v>
+                  <c:v>24903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,133 +751,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>1016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>1219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>1430</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>1656</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>1895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>2158</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>2293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>2549</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39</c:v>
+                  <c:v>2831</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>3146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47</c:v>
+                  <c:v>3460</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51</c:v>
+                  <c:v>3791</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56</c:v>
+                  <c:v>4153</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62</c:v>
+                  <c:v>4482</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67</c:v>
+                  <c:v>4875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72</c:v>
+                  <c:v>5288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>78</c:v>
+                  <c:v>5681</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>86</c:v>
+                  <c:v>6085</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>93</c:v>
+                  <c:v>6530</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>101</c:v>
+                  <c:v>6981</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>113</c:v>
+                  <c:v>7467</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>116</c:v>
+                  <c:v>7951</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>122</c:v>
+                  <c:v>8460</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>128</c:v>
+                  <c:v>8982</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>137</c:v>
+                  <c:v>9475</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>141</c:v>
+                  <c:v>10030</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>150</c:v>
+                  <c:v>10659</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>161</c:v>
+                  <c:v>11215</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>172</c:v>
+                  <c:v>11787</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>182</c:v>
+                  <c:v>12399</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>185</c:v>
+                  <c:v>13069</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>194</c:v>
+                  <c:v>13662</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>208</c:v>
+                  <c:v>14306</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>213</c:v>
+                  <c:v>14989</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>227</c:v>
+                  <c:v>15648</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>232</c:v>
+                  <c:v>16390</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>243</c:v>
+                  <c:v>17187</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>258</c:v>
+                  <c:v>17849</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>265</c:v>
+                  <c:v>18549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,133 +1112,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>1098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>1737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>2247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>2528</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>2847</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>3132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33</c:v>
+                  <c:v>3527</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>3842</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38</c:v>
+                  <c:v>4224</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>4581</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>4991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47</c:v>
+                  <c:v>5428</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51</c:v>
+                  <c:v>5868</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>56</c:v>
+                  <c:v>6334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60</c:v>
+                  <c:v>6752</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>64</c:v>
+                  <c:v>7280</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>69</c:v>
+                  <c:v>7815</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>73</c:v>
+                  <c:v>8305</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>81</c:v>
+                  <c:v>8876</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87</c:v>
+                  <c:v>9405</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>93</c:v>
+                  <c:v>9953</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>110</c:v>
+                  <c:v>10578</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>104</c:v>
+                  <c:v>11166</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>110</c:v>
+                  <c:v>11794</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>117</c:v>
+                  <c:v>12462</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>117</c:v>
+                  <c:v>13077</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>129</c:v>
+                  <c:v>13764</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>136</c:v>
+                  <c:v>14483</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>138</c:v>
+                  <c:v>15190</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>146</c:v>
+                  <c:v>15943</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>152</c:v>
+                  <c:v>16642</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>162</c:v>
+                  <c:v>17381</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>165</c:v>
+                  <c:v>18166</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>172</c:v>
+                  <c:v>19030</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>191</c:v>
+                  <c:v>19796</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>190</c:v>
+                  <c:v>20685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,133 +1473,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>1232</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>1427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23</c:v>
+                  <c:v>1606</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>1838</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>2066</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>2370</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38</c:v>
+                  <c:v>2602</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>2852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>3119</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51</c:v>
+                  <c:v>3413</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53</c:v>
+                  <c:v>3736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62</c:v>
+                  <c:v>4434</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72</c:v>
+                  <c:v>4777</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>78</c:v>
+                  <c:v>5170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79</c:v>
+                  <c:v>5531</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>85</c:v>
+                  <c:v>5909</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>106</c:v>
+                  <c:v>6760</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>106</c:v>
+                  <c:v>7186</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110</c:v>
+                  <c:v>7679</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>117</c:v>
+                  <c:v>8113</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>127</c:v>
+                  <c:v>8622</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>130</c:v>
+                  <c:v>9109</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>137</c:v>
+                  <c:v>9802</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>146</c:v>
+                  <c:v>10464</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>153</c:v>
+                  <c:v>10731</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>160</c:v>
+                  <c:v>11256</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>168</c:v>
+                  <c:v>11789</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>175</c:v>
+                  <c:v>12379</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>186</c:v>
+                  <c:v>12973</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>192</c:v>
+                  <c:v>13642</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>205</c:v>
+                  <c:v>14211</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>212</c:v>
+                  <c:v>14820</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>220</c:v>
+                  <c:v>15518</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>231</c:v>
+                  <c:v>16177</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>242</c:v>
+                  <c:v>16844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="114" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,16 +2824,16 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,16 +2841,16 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2858,16 +2858,16 @@
         <v>300</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2875,16 +2875,16 @@
         <v>400</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,16 +2892,16 @@
         <v>500</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2909,16 +2909,16 @@
         <v>600</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>418</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>344</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2926,16 +2926,16 @@
         <v>700</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>561</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>418</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>474</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,16 +2943,16 @@
         <v>800</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>723</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>550</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>616</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,16 +2960,16 @@
         <v>900</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>899</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>685</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>753</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,16 +2977,16 @@
         <v>1000</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>1100</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>829</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2994,16 +2994,16 @@
         <v>1100</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>1298</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>1016</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>1098</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>927</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3011,16 +3011,16 @@
         <v>1200</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>1558</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>1219</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>1290</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,16 +3028,16 @@
         <v>1300</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>1812</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>1430</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>1508</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3045,16 +3045,16 @@
         <v>1400</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>2091</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>1656</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>1737</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,16 +3062,16 @@
         <v>1500</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>2387</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>1895</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>1982</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3079,16 +3079,16 @@
         <v>1600</v>
       </c>
       <c r="B17">
-        <v>37</v>
+        <v>2698</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>2158</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>2247</v>
       </c>
       <c r="E17">
-        <v>26</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3096,16 +3096,16 @@
         <v>1700</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>3034</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>2293</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>2528</v>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,16 +3113,16 @@
         <v>1800</v>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>3406</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>2549</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>2847</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,16 +3130,16 @@
         <v>1900</v>
       </c>
       <c r="B20">
-        <v>52</v>
+        <v>3786</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>2831</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>3132</v>
       </c>
       <c r="E20">
-        <v>38</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3147,16 +3147,16 @@
         <v>2000</v>
       </c>
       <c r="B21">
-        <v>58</v>
+        <v>4190</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>3146</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>3527</v>
       </c>
       <c r="E21">
-        <v>42</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3164,16 +3164,16 @@
         <v>2100</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>4603</v>
       </c>
       <c r="C22">
-        <v>47</v>
+        <v>3460</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>3842</v>
       </c>
       <c r="E22">
-        <v>46</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,16 +3181,16 @@
         <v>2200</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>5049</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>3791</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>4224</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3198,16 +3198,16 @@
         <v>2300</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>5531</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>4153</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>4581</v>
       </c>
       <c r="E24">
-        <v>53</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3215,16 +3215,16 @@
         <v>2400</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>6015</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>4482</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>4991</v>
       </c>
       <c r="E25">
-        <v>56</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3232,16 +3232,16 @@
         <v>2500</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>6541</v>
       </c>
       <c r="C26">
-        <v>67</v>
+        <v>4875</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>5428</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3249,16 +3249,16 @@
         <v>2600</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>7024</v>
       </c>
       <c r="C27">
-        <v>72</v>
+        <v>5288</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>5868</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,16 +3266,16 @@
         <v>2700</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>7582</v>
       </c>
       <c r="C28">
-        <v>78</v>
+        <v>5681</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>6334</v>
       </c>
       <c r="E28">
-        <v>78</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,16 +3283,16 @@
         <v>2800</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>8131</v>
       </c>
       <c r="C29">
-        <v>86</v>
+        <v>6085</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>6752</v>
       </c>
       <c r="E29">
-        <v>79</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,16 +3300,16 @@
         <v>2900</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>8783</v>
       </c>
       <c r="C30">
-        <v>93</v>
+        <v>6530</v>
       </c>
       <c r="D30">
-        <v>64</v>
+        <v>7280</v>
       </c>
       <c r="E30">
-        <v>85</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,16 +3317,16 @@
         <v>3000</v>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>9355</v>
       </c>
       <c r="C31">
-        <v>101</v>
+        <v>6981</v>
       </c>
       <c r="D31">
-        <v>69</v>
+        <v>7815</v>
       </c>
       <c r="E31">
-        <v>93</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,16 +3334,16 @@
         <v>3100</v>
       </c>
       <c r="B32">
-        <v>138</v>
+        <v>9994</v>
       </c>
       <c r="C32">
-        <v>113</v>
+        <v>7467</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>8305</v>
       </c>
       <c r="E32">
-        <v>106</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -3351,16 +3351,16 @@
         <v>3200</v>
       </c>
       <c r="B33">
-        <v>148</v>
+        <v>10606</v>
       </c>
       <c r="C33">
-        <v>116</v>
+        <v>7951</v>
       </c>
       <c r="D33">
-        <v>81</v>
+        <v>8876</v>
       </c>
       <c r="E33">
-        <v>106</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -3368,16 +3368,16 @@
         <v>3300</v>
       </c>
       <c r="B34">
-        <v>157</v>
+        <v>11299</v>
       </c>
       <c r="C34">
-        <v>122</v>
+        <v>8460</v>
       </c>
       <c r="D34">
-        <v>87</v>
+        <v>9405</v>
       </c>
       <c r="E34">
-        <v>110</v>
+        <v>7679</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -3385,16 +3385,16 @@
         <v>3400</v>
       </c>
       <c r="B35">
-        <v>166</v>
+        <v>12024</v>
       </c>
       <c r="C35">
-        <v>128</v>
+        <v>8982</v>
       </c>
       <c r="D35">
-        <v>93</v>
+        <v>9953</v>
       </c>
       <c r="E35">
-        <v>117</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -3402,16 +3402,16 @@
         <v>3500</v>
       </c>
       <c r="B36">
-        <v>177</v>
+        <v>12691</v>
       </c>
       <c r="C36">
-        <v>137</v>
+        <v>9475</v>
       </c>
       <c r="D36">
-        <v>110</v>
+        <v>10578</v>
       </c>
       <c r="E36">
-        <v>127</v>
+        <v>8622</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -3419,16 +3419,16 @@
         <v>3600</v>
       </c>
       <c r="B37">
-        <v>187</v>
+        <v>13418</v>
       </c>
       <c r="C37">
-        <v>141</v>
+        <v>10030</v>
       </c>
       <c r="D37">
-        <v>104</v>
+        <v>11166</v>
       </c>
       <c r="E37">
-        <v>130</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3436,16 +3436,16 @@
         <v>3700</v>
       </c>
       <c r="B38">
-        <v>197</v>
+        <v>14173</v>
       </c>
       <c r="C38">
-        <v>150</v>
+        <v>10659</v>
       </c>
       <c r="D38">
-        <v>110</v>
+        <v>11794</v>
       </c>
       <c r="E38">
-        <v>137</v>
+        <v>9802</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3453,16 +3453,16 @@
         <v>3800</v>
       </c>
       <c r="B39">
-        <v>208</v>
+        <v>14968</v>
       </c>
       <c r="C39">
-        <v>161</v>
+        <v>11215</v>
       </c>
       <c r="D39">
-        <v>117</v>
+        <v>12462</v>
       </c>
       <c r="E39">
-        <v>146</v>
+        <v>10464</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -3470,16 +3470,16 @@
         <v>3900</v>
       </c>
       <c r="B40">
-        <v>220</v>
+        <v>15843</v>
       </c>
       <c r="C40">
-        <v>172</v>
+        <v>11787</v>
       </c>
       <c r="D40">
-        <v>117</v>
+        <v>13077</v>
       </c>
       <c r="E40">
-        <v>153</v>
+        <v>10731</v>
       </c>
       <c r="X40" t="s">
         <v>5</v>
@@ -3490,16 +3490,16 @@
         <v>4000</v>
       </c>
       <c r="B41">
-        <v>231</v>
+        <v>16571</v>
       </c>
       <c r="C41">
-        <v>182</v>
+        <v>12399</v>
       </c>
       <c r="D41">
-        <v>129</v>
+        <v>13764</v>
       </c>
       <c r="E41">
-        <v>160</v>
+        <v>11256</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3507,16 +3507,16 @@
         <v>4100</v>
       </c>
       <c r="B42">
-        <v>242</v>
+        <v>17443</v>
       </c>
       <c r="C42">
-        <v>185</v>
+        <v>13069</v>
       </c>
       <c r="D42">
-        <v>136</v>
+        <v>14483</v>
       </c>
       <c r="E42">
-        <v>168</v>
+        <v>11789</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -3524,16 +3524,16 @@
         <v>4200</v>
       </c>
       <c r="B43">
-        <v>255</v>
+        <v>18255</v>
       </c>
       <c r="C43">
-        <v>194</v>
+        <v>13662</v>
       </c>
       <c r="D43">
-        <v>138</v>
+        <v>15190</v>
       </c>
       <c r="E43">
-        <v>175</v>
+        <v>12379</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -3541,16 +3541,16 @@
         <v>4300</v>
       </c>
       <c r="B44">
-        <v>267</v>
+        <v>19130</v>
       </c>
       <c r="C44">
-        <v>208</v>
+        <v>14306</v>
       </c>
       <c r="D44">
-        <v>146</v>
+        <v>15943</v>
       </c>
       <c r="E44">
-        <v>186</v>
+        <v>12973</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -3558,16 +3558,16 @@
         <v>4400</v>
       </c>
       <c r="B45">
-        <v>279</v>
+        <v>20052</v>
       </c>
       <c r="C45">
-        <v>213</v>
+        <v>14989</v>
       </c>
       <c r="D45">
-        <v>152</v>
+        <v>16642</v>
       </c>
       <c r="E45">
-        <v>192</v>
+        <v>13642</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -3575,16 +3575,16 @@
         <v>4500</v>
       </c>
       <c r="B46">
-        <v>293</v>
+        <v>20946</v>
       </c>
       <c r="C46">
-        <v>227</v>
+        <v>15648</v>
       </c>
       <c r="D46">
-        <v>162</v>
+        <v>17381</v>
       </c>
       <c r="E46">
-        <v>205</v>
+        <v>14211</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -3592,16 +3592,16 @@
         <v>4600</v>
       </c>
       <c r="B47">
-        <v>320</v>
+        <v>21897</v>
       </c>
       <c r="C47">
-        <v>232</v>
+        <v>16390</v>
       </c>
       <c r="D47">
-        <v>165</v>
+        <v>18166</v>
       </c>
       <c r="E47">
-        <v>212</v>
+        <v>14820</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -3609,16 +3609,16 @@
         <v>4700</v>
       </c>
       <c r="B48">
-        <v>320</v>
+        <v>22892</v>
       </c>
       <c r="C48">
-        <v>243</v>
+        <v>17187</v>
       </c>
       <c r="D48">
-        <v>172</v>
+        <v>19030</v>
       </c>
       <c r="E48">
-        <v>220</v>
+        <v>15518</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3626,16 +3626,16 @@
         <v>4800</v>
       </c>
       <c r="B49">
-        <v>333</v>
+        <v>24275</v>
       </c>
       <c r="C49">
-        <v>258</v>
+        <v>17849</v>
       </c>
       <c r="D49">
-        <v>191</v>
+        <v>19796</v>
       </c>
       <c r="E49">
-        <v>231</v>
+        <v>16177</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3643,16 +3643,16 @@
         <v>4900</v>
       </c>
       <c r="B50">
-        <v>346</v>
+        <v>24903</v>
       </c>
       <c r="C50">
-        <v>265</v>
+        <v>18549</v>
       </c>
       <c r="D50">
-        <v>190</v>
+        <v>20685</v>
       </c>
       <c r="E50">
-        <v>242</v>
+        <v>16844</v>
       </c>
     </row>
   </sheetData>
